--- a/PTBR-COM-PORTRAIT/Lang/PTBR/Game/General.xlsx
+++ b/PTBR-COM-PORTRAIT/Lang/PTBR/Game/General.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC31CB1D-1281-4988-91D8-00F129CB6157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19838691-6E36-42A3-AF04-9E886E210473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="0" windowWidth="10320" windowHeight="13500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -44727,9 +44727,6 @@
     <t>#1 #2x #3 (Acerto: #4%, Penetração: #5%)</t>
   </si>
   <si>
-    <t>#1 flecha(s)</t>
-  </si>
-  <si>
     <t>Ultravisão, Poção</t>
   </si>
   <si>
@@ -45309,9 +45306,6 @@
   </si>
   <si>
     <t>actToggleMapRoof</t>
-  </si>
-  <si>
-    <t>Generate Roof  (#1)</t>
   </si>
   <si>
     <t>屋根の生成 (#1)</t>
@@ -46134,6 +46128,12 @@
   </si>
   <si>
     <t>Maldição</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flecha(s) de #1</t>
+  </si>
+  <si>
+    <t>Generate Roof(#1)</t>
   </si>
 </sst>
 </file>
@@ -46200,43 +46200,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -46372,9 +46336,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A2629" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2644" sqref="D2644:D2652"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A1290" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1304" sqref="E1304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
@@ -46678,22 +46642,22 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>9653</v>
+        <v>9652</v>
       </c>
       <c r="B18" t="s">
-        <v>9650</v>
+        <v>9649</v>
       </c>
       <c r="C18" t="s">
         <v>2956</v>
       </c>
       <c r="D18" t="s">
-        <v>9836</v>
+        <v>9834</v>
       </c>
       <c r="E18" t="s">
-        <v>9654</v>
+        <v>9653</v>
       </c>
       <c r="F18" t="s">
-        <v>9654</v>
+        <v>9653</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -46800,19 +46764,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>9690</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9672</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9843</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9691</v>
+      </c>
+      <c r="F25" t="s">
         <v>9692</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9674</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9845</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9693</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9694</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -46974,7 +46938,7 @@
         <v>8550</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>9886</v>
+        <v>9884</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>8554</v>
@@ -47019,19 +46983,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>9687</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9672</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9842</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9688</v>
+      </c>
+      <c r="F37" t="s">
         <v>9689</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9674</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9844</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9690</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9691</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -47945,22 +47909,22 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>9731</v>
+        <v>9729</v>
       </c>
       <c r="B86" t="s">
-        <v>9732</v>
+        <v>9730</v>
       </c>
       <c r="C86" t="s">
         <v>6059</v>
       </c>
       <c r="D86" t="s">
-        <v>9855</v>
+        <v>9853</v>
       </c>
       <c r="E86" t="s">
         <v>6075</v>
       </c>
       <c r="F86" t="s">
-        <v>9733</v>
+        <v>9731</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -47994,7 +47958,7 @@
         <v>8</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>9537</v>
+        <v>9536</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>103</v>
@@ -48259,22 +48223,22 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>9745</v>
+        <v>9743</v>
       </c>
       <c r="B102" t="s">
-        <v>9746</v>
+        <v>9744</v>
       </c>
       <c r="C102" t="s">
         <v>6059</v>
       </c>
       <c r="D102" t="s">
-        <v>9857</v>
+        <v>9855</v>
       </c>
       <c r="E102" t="s">
-        <v>9747</v>
+        <v>9745</v>
       </c>
       <c r="F102" t="s">
-        <v>9748</v>
+        <v>9746</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -48365,7 +48329,7 @@
         <v>6059</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>9480</v>
+        <v>9928</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>6069</v>
@@ -48858,22 +48822,22 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
+        <v>9648</v>
+      </c>
+      <c r="B133" t="s">
         <v>9649</v>
-      </c>
-      <c r="B133" t="s">
-        <v>9650</v>
       </c>
       <c r="C133" t="s">
         <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>9835</v>
+        <v>9833</v>
       </c>
       <c r="E133" t="s">
+        <v>9650</v>
+      </c>
+      <c r="F133" t="s">
         <v>9651</v>
-      </c>
-      <c r="F133" t="s">
-        <v>9652</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -49423,7 +49387,7 @@
         <v>5461</v>
       </c>
       <c r="B162" t="s">
-        <v>9806</v>
+        <v>9804</v>
       </c>
       <c r="D162" t="s">
         <v>73</v>
@@ -49879,22 +49843,22 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>9783</v>
+        <v>9781</v>
       </c>
       <c r="B186" t="s">
-        <v>9784</v>
+        <v>9782</v>
       </c>
       <c r="C186" t="s">
         <v>8</v>
       </c>
       <c r="D186" t="s">
-        <v>9863</v>
+        <v>9861</v>
       </c>
       <c r="E186" t="s">
-        <v>9785</v>
+        <v>9783</v>
       </c>
       <c r="F186" t="s">
-        <v>9786</v>
+        <v>9784</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -51197,19 +51161,19 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
+        <v>9706</v>
+      </c>
+      <c r="B257" t="s">
+        <v>9707</v>
+      </c>
+      <c r="D257" t="s">
+        <v>9846</v>
+      </c>
+      <c r="E257" t="s">
         <v>9708</v>
       </c>
-      <c r="B257" t="s">
+      <c r="F257" t="s">
         <v>9709</v>
-      </c>
-      <c r="D257" t="s">
-        <v>9848</v>
-      </c>
-      <c r="E257" t="s">
-        <v>9710</v>
-      </c>
-      <c r="F257" t="s">
-        <v>9711</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -51234,19 +51198,19 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
+        <v>9710</v>
+      </c>
+      <c r="B259" t="s">
+        <v>9707</v>
+      </c>
+      <c r="D259" t="s">
+        <v>9847</v>
+      </c>
+      <c r="E259" t="s">
+        <v>9711</v>
+      </c>
+      <c r="F259" t="s">
         <v>9712</v>
-      </c>
-      <c r="B259" t="s">
-        <v>9709</v>
-      </c>
-      <c r="D259" t="s">
-        <v>9849</v>
-      </c>
-      <c r="E259" t="s">
-        <v>9713</v>
-      </c>
-      <c r="F259" t="s">
-        <v>9714</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -51382,42 +51346,42 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
-        <v>9703</v>
+        <v>9701</v>
       </c>
       <c r="B267" t="s">
-        <v>9704</v>
+        <v>9702</v>
       </c>
       <c r="C267" t="s">
         <v>8</v>
       </c>
       <c r="D267" t="s">
-        <v>9873</v>
+        <v>9871</v>
       </c>
       <c r="E267" t="s">
-        <v>9705</v>
+        <v>9703</v>
       </c>
       <c r="F267" t="s">
-        <v>9705</v>
+        <v>9703</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>9706</v>
+        <v>9704</v>
       </c>
       <c r="B268" t="s">
-        <v>9704</v>
+        <v>9702</v>
       </c>
       <c r="C268" t="s">
         <v>8</v>
       </c>
       <c r="D268" t="s">
-        <v>9873</v>
+        <v>9871</v>
       </c>
       <c r="E268" t="s">
-        <v>9707</v>
+        <v>9705</v>
       </c>
       <c r="F268" t="s">
-        <v>9707</v>
+        <v>9705</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -51927,7 +51891,7 @@
         <v>390</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>9539</v>
+        <v>9538</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>7014</v>
@@ -52012,36 +51976,36 @@
     </row>
     <row r="300" spans="1:6" ht="82.5">
       <c r="A300" t="s">
+        <v>9612</v>
+      </c>
+      <c r="B300" t="s">
+        <v>9609</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>9872</v>
+      </c>
+      <c r="E300" t="s">
         <v>9613</v>
       </c>
-      <c r="B300" t="s">
-        <v>9610</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>9874</v>
-      </c>
-      <c r="E300" t="s">
+      <c r="F300" t="s">
         <v>9614</v>
-      </c>
-      <c r="F300" t="s">
-        <v>9615</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" t="s">
+        <v>9615</v>
+      </c>
+      <c r="B301" t="s">
+        <v>9609</v>
+      </c>
+      <c r="D301" t="s">
+        <v>9824</v>
+      </c>
+      <c r="E301" t="s">
         <v>9616</v>
       </c>
-      <c r="B301" t="s">
-        <v>9610</v>
-      </c>
-      <c r="D301" t="s">
-        <v>9826</v>
-      </c>
-      <c r="E301" t="s">
+      <c r="F301" t="s">
         <v>9617</v>
-      </c>
-      <c r="F301" t="s">
-        <v>9618</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -52180,70 +52144,70 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
+        <v>9751</v>
+      </c>
+      <c r="B309" t="s">
+        <v>9748</v>
+      </c>
+      <c r="D309" t="s">
+        <v>9878</v>
+      </c>
+      <c r="E309" t="s">
+        <v>9752</v>
+      </c>
+      <c r="F309" t="s">
         <v>9753</v>
-      </c>
-      <c r="B309" t="s">
-        <v>9750</v>
-      </c>
-      <c r="D309" t="s">
-        <v>9880</v>
-      </c>
-      <c r="E309" t="s">
-        <v>9754</v>
-      </c>
-      <c r="F309" t="s">
-        <v>9755</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
+        <v>9757</v>
+      </c>
+      <c r="B310" t="s">
+        <v>9748</v>
+      </c>
+      <c r="D310" t="s">
+        <v>9880</v>
+      </c>
+      <c r="E310" t="s">
+        <v>9758</v>
+      </c>
+      <c r="F310" t="s">
         <v>9759</v>
-      </c>
-      <c r="B310" t="s">
-        <v>9750</v>
-      </c>
-      <c r="D310" t="s">
-        <v>9882</v>
-      </c>
-      <c r="E310" t="s">
-        <v>9760</v>
-      </c>
-      <c r="F310" t="s">
-        <v>9761</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
+        <v>9747</v>
+      </c>
+      <c r="B311" t="s">
+        <v>9748</v>
+      </c>
+      <c r="D311" t="s">
+        <v>9877</v>
+      </c>
+      <c r="E311" t="s">
         <v>9749</v>
       </c>
-      <c r="B311" t="s">
+      <c r="F311" t="s">
         <v>9750</v>
-      </c>
-      <c r="D311" t="s">
-        <v>9879</v>
-      </c>
-      <c r="E311" t="s">
-        <v>9751</v>
-      </c>
-      <c r="F311" t="s">
-        <v>9752</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
+        <v>9754</v>
+      </c>
+      <c r="B312" t="s">
+        <v>9748</v>
+      </c>
+      <c r="D312" t="s">
+        <v>9879</v>
+      </c>
+      <c r="E312" t="s">
+        <v>9755</v>
+      </c>
+      <c r="F312" t="s">
         <v>9756</v>
-      </c>
-      <c r="B312" t="s">
-        <v>9750</v>
-      </c>
-      <c r="D312" t="s">
-        <v>9881</v>
-      </c>
-      <c r="E312" t="s">
-        <v>9757</v>
-      </c>
-      <c r="F312" t="s">
-        <v>9758</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -52625,22 +52589,22 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" t="s">
+        <v>9663</v>
+      </c>
+      <c r="B335" t="s">
         <v>9664</v>
-      </c>
-      <c r="B335" t="s">
-        <v>9665</v>
       </c>
       <c r="C335" t="s">
         <v>8</v>
       </c>
       <c r="D335" t="s">
-        <v>9666</v>
+        <v>9665</v>
       </c>
       <c r="E335" t="s">
-        <v>9666</v>
+        <v>9665</v>
       </c>
       <c r="F335" t="s">
-        <v>9666</v>
+        <v>9665</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -52711,7 +52675,7 @@
         <v>709</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>9495</v>
+        <v>9494</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>1259</v>
@@ -52731,7 +52695,7 @@
         <v>709</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>9496</v>
+        <v>9495</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>1262</v>
@@ -52751,7 +52715,7 @@
         <v>709</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>9497</v>
+        <v>9496</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>1265</v>
@@ -52771,7 +52735,7 @@
         <v>709</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>9498</v>
+        <v>9497</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>1268</v>
@@ -52791,7 +52755,7 @@
         <v>709</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>9499</v>
+        <v>9498</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>1271</v>
@@ -52822,19 +52786,19 @@
     </row>
     <row r="345" spans="1:6" ht="33">
       <c r="A345" t="s">
+        <v>9684</v>
+      </c>
+      <c r="B345" t="s">
+        <v>9672</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>9870</v>
+      </c>
+      <c r="E345" t="s">
+        <v>9685</v>
+      </c>
+      <c r="F345" t="s">
         <v>9686</v>
-      </c>
-      <c r="B345" t="s">
-        <v>9674</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>9872</v>
-      </c>
-      <c r="E345" t="s">
-        <v>9687</v>
-      </c>
-      <c r="F345" t="s">
-        <v>9688</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -53490,22 +53454,22 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" t="s">
+        <v>9622</v>
+      </c>
+      <c r="B379" t="s">
         <v>9623</v>
-      </c>
-      <c r="B379" t="s">
-        <v>9624</v>
       </c>
       <c r="C379" t="s">
         <v>709</v>
       </c>
       <c r="D379" t="s">
-        <v>9828</v>
+        <v>9826</v>
       </c>
       <c r="E379" t="s">
+        <v>9624</v>
+      </c>
+      <c r="F379" t="s">
         <v>9625</v>
-      </c>
-      <c r="F379" t="s">
-        <v>9626</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="33">
@@ -53932,19 +53896,19 @@
     </row>
     <row r="402" spans="1:6">
       <c r="A402" t="s">
+        <v>9634</v>
+      </c>
+      <c r="B402" t="s">
+        <v>9631</v>
+      </c>
+      <c r="D402" t="s">
+        <v>9829</v>
+      </c>
+      <c r="E402" t="s">
         <v>9635</v>
       </c>
-      <c r="B402" t="s">
-        <v>9632</v>
-      </c>
-      <c r="D402" t="s">
-        <v>9831</v>
-      </c>
-      <c r="E402" t="s">
+      <c r="F402" t="s">
         <v>9636</v>
-      </c>
-      <c r="F402" t="s">
-        <v>9637</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -54080,22 +54044,22 @@
     </row>
     <row r="410" spans="1:6">
       <c r="A410" t="s">
-        <v>9773</v>
+        <v>9771</v>
       </c>
       <c r="B410" t="s">
-        <v>9774</v>
+        <v>9772</v>
       </c>
       <c r="C410" t="s">
         <v>217</v>
       </c>
       <c r="D410" t="s">
-        <v>9861</v>
+        <v>9859</v>
       </c>
       <c r="E410" t="s">
-        <v>9775</v>
+        <v>9773</v>
       </c>
       <c r="F410" t="s">
-        <v>9776</v>
+        <v>9774</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -54978,16 +54942,16 @@
     </row>
     <row r="457" spans="1:6">
       <c r="A457" t="s">
-        <v>9715</v>
+        <v>9713</v>
       </c>
       <c r="B457" t="s">
-        <v>9716</v>
+        <v>9714</v>
       </c>
       <c r="C457" t="s">
         <v>2502</v>
       </c>
       <c r="D457" t="s">
-        <v>9850</v>
+        <v>9848</v>
       </c>
       <c r="E457" t="s">
         <v>2927</v>
@@ -55129,16 +55093,16 @@
         <v>5898</v>
       </c>
       <c r="B465" t="s">
-        <v>9641</v>
+        <v>9640</v>
       </c>
       <c r="D465" t="s">
-        <v>9834</v>
+        <v>9832</v>
       </c>
       <c r="E465" t="s">
+        <v>9646</v>
+      </c>
+      <c r="F465" t="s">
         <v>9647</v>
-      </c>
-      <c r="F465" t="s">
-        <v>9648</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -55622,19 +55586,19 @@
         <v>2097</v>
       </c>
       <c r="B491" t="s">
-        <v>9915</v>
+        <v>9913</v>
       </c>
       <c r="C491" t="s">
         <v>1945</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>9921</v>
+        <v>9919</v>
       </c>
       <c r="E491" t="s">
-        <v>9916</v>
+        <v>9914</v>
       </c>
       <c r="F491" t="s">
-        <v>9917</v>
+        <v>9915</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -55747,22 +55711,22 @@
     </row>
     <row r="498" spans="1:6" ht="33">
       <c r="A498" t="s">
-        <v>9677</v>
+        <v>9675</v>
       </c>
       <c r="B498" t="s">
-        <v>9674</v>
+        <v>9672</v>
       </c>
       <c r="C498" t="s">
         <v>709</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>9875</v>
+        <v>9873</v>
       </c>
       <c r="E498" t="s">
-        <v>9678</v>
+        <v>9676</v>
       </c>
       <c r="F498" t="s">
-        <v>9679</v>
+        <v>9677</v>
       </c>
     </row>
     <row r="499" spans="1:6">
@@ -56035,7 +55999,7 @@
         <v>2956</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>9540</v>
+        <v>9539</v>
       </c>
       <c r="E513" s="1" t="s">
         <v>3217</v>
@@ -56080,22 +56044,22 @@
     </row>
     <row r="516" spans="1:6">
       <c r="A516" t="s">
-        <v>9769</v>
+        <v>9767</v>
       </c>
       <c r="B516" t="s">
-        <v>9770</v>
+        <v>9768</v>
       </c>
       <c r="C516" t="s">
         <v>2111</v>
       </c>
       <c r="D516" t="s">
-        <v>9860</v>
+        <v>9858</v>
       </c>
       <c r="E516" t="s">
-        <v>9771</v>
+        <v>9769</v>
       </c>
       <c r="F516" t="s">
-        <v>9772</v>
+        <v>9770</v>
       </c>
     </row>
     <row r="517" spans="1:6">
@@ -56140,19 +56104,19 @@
     </row>
     <row r="519" spans="1:6" ht="49.5">
       <c r="A519" t="s">
+        <v>9678</v>
+      </c>
+      <c r="B519" t="s">
+        <v>9672</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>9874</v>
+      </c>
+      <c r="E519" t="s">
+        <v>9679</v>
+      </c>
+      <c r="F519" t="s">
         <v>9680</v>
-      </c>
-      <c r="B519" t="s">
-        <v>9674</v>
-      </c>
-      <c r="D519" s="3" t="s">
-        <v>9876</v>
-      </c>
-      <c r="E519" t="s">
-        <v>9681</v>
-      </c>
-      <c r="F519" t="s">
-        <v>9682</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -56288,16 +56252,16 @@
     </row>
     <row r="527" spans="1:6">
       <c r="A527" t="s">
+        <v>9578</v>
+      </c>
+      <c r="B527" t="s">
         <v>9579</v>
       </c>
-      <c r="B527" t="s">
+      <c r="D527" t="s">
+        <v>9592</v>
+      </c>
+      <c r="E527" t="s">
         <v>9580</v>
-      </c>
-      <c r="D527" t="s">
-        <v>9593</v>
-      </c>
-      <c r="E527" t="s">
-        <v>9581</v>
       </c>
       <c r="F527" t="s">
         <v>1107</v>
@@ -56636,36 +56600,36 @@
     </row>
     <row r="545" spans="1:6">
       <c r="A545" t="s">
+        <v>9630</v>
+      </c>
+      <c r="B545" t="s">
         <v>9631</v>
       </c>
-      <c r="B545" t="s">
+      <c r="D545" t="s">
+        <v>9828</v>
+      </c>
+      <c r="E545" t="s">
         <v>9632</v>
       </c>
-      <c r="D545" t="s">
-        <v>9830</v>
-      </c>
-      <c r="E545" t="s">
+      <c r="F545" t="s">
         <v>9633</v>
-      </c>
-      <c r="F545" t="s">
-        <v>9634</v>
       </c>
     </row>
     <row r="546" spans="1:6">
       <c r="A546" t="s">
+        <v>9801</v>
+      </c>
+      <c r="B546" t="s">
+        <v>9786</v>
+      </c>
+      <c r="D546" t="s">
+        <v>9867</v>
+      </c>
+      <c r="E546" t="s">
+        <v>9802</v>
+      </c>
+      <c r="F546" t="s">
         <v>9803</v>
-      </c>
-      <c r="B546" t="s">
-        <v>9788</v>
-      </c>
-      <c r="D546" t="s">
-        <v>9869</v>
-      </c>
-      <c r="E546" t="s">
-        <v>9804</v>
-      </c>
-      <c r="F546" t="s">
-        <v>9805</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -57209,22 +57173,22 @@
     </row>
     <row r="575" spans="1:6">
       <c r="A575" t="s">
-        <v>9777</v>
+        <v>9775</v>
       </c>
       <c r="B575" t="s">
-        <v>9774</v>
+        <v>9772</v>
       </c>
       <c r="C575" t="s">
         <v>709</v>
       </c>
       <c r="D575" t="s">
-        <v>9862</v>
+        <v>9860</v>
       </c>
       <c r="E575" t="s">
-        <v>9778</v>
+        <v>9776</v>
       </c>
       <c r="F575" t="s">
-        <v>9779</v>
+        <v>9777</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -57613,22 +57577,22 @@
     </row>
     <row r="597" spans="1:6">
       <c r="A597" t="s">
-        <v>9817</v>
+        <v>9815</v>
       </c>
       <c r="B597" t="s">
-        <v>9818</v>
+        <v>9816</v>
       </c>
       <c r="C597" t="s">
         <v>4217</v>
       </c>
       <c r="D597" t="s">
-        <v>9871</v>
+        <v>9869</v>
       </c>
       <c r="E597" t="s">
-        <v>9820</v>
+        <v>9818</v>
       </c>
       <c r="F597" t="s">
-        <v>9819</v>
+        <v>9817</v>
       </c>
     </row>
     <row r="598" spans="1:6">
@@ -57653,22 +57617,22 @@
     </row>
     <row r="599" spans="1:6">
       <c r="A599" t="s">
+        <v>9571</v>
+      </c>
+      <c r="B599" t="s">
         <v>9572</v>
-      </c>
-      <c r="B599" t="s">
-        <v>9573</v>
       </c>
       <c r="C599" t="s">
         <v>217</v>
       </c>
       <c r="D599" t="s">
-        <v>9591</v>
+        <v>9590</v>
       </c>
       <c r="E599" t="s">
+        <v>9573</v>
+      </c>
+      <c r="F599" t="s">
         <v>9574</v>
-      </c>
-      <c r="F599" t="s">
-        <v>9575</v>
       </c>
     </row>
     <row r="600" spans="1:6">
@@ -57739,7 +57703,7 @@
         <v>7</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>9536</v>
+        <v>9535</v>
       </c>
       <c r="E603" s="1" t="s">
         <v>5467</v>
@@ -59475,7 +59439,7 @@
         <v>6035</v>
       </c>
       <c r="D694" s="4" t="s">
-        <v>9526</v>
+        <v>9525</v>
       </c>
       <c r="E694" s="4" t="s">
         <v>6041</v>
@@ -61068,22 +61032,22 @@
     </row>
     <row r="778" spans="1:6">
       <c r="A778" t="s">
-        <v>9673</v>
+        <v>9671</v>
       </c>
       <c r="B778" t="s">
-        <v>9674</v>
+        <v>9672</v>
       </c>
       <c r="C778" t="s">
         <v>709</v>
       </c>
       <c r="D778" t="s">
-        <v>9842</v>
+        <v>9840</v>
       </c>
       <c r="E778" t="s">
-        <v>9675</v>
+        <v>9673</v>
       </c>
       <c r="F778" t="s">
-        <v>9676</v>
+        <v>9674</v>
       </c>
     </row>
     <row r="779" spans="1:6">
@@ -61131,19 +61095,19 @@
         <v>2165</v>
       </c>
       <c r="B781" t="s">
-        <v>9887</v>
+        <v>9885</v>
       </c>
       <c r="C781" t="s">
         <v>2111</v>
       </c>
       <c r="D781" t="s">
-        <v>9919</v>
+        <v>9917</v>
       </c>
       <c r="E781" t="s">
         <v>2167</v>
       </c>
       <c r="F781" t="s">
-        <v>9888</v>
+        <v>9886</v>
       </c>
     </row>
     <row r="782" spans="1:6">
@@ -61279,16 +61243,16 @@
         <v>5789</v>
       </c>
       <c r="B789" t="s">
+        <v>9885</v>
+      </c>
+      <c r="D789" t="s">
+        <v>9918</v>
+      </c>
+      <c r="E789" t="s">
         <v>9887</v>
       </c>
-      <c r="D789" t="s">
-        <v>9920</v>
-      </c>
-      <c r="E789" t="s">
-        <v>9889</v>
-      </c>
       <c r="F789" t="s">
-        <v>9890</v>
+        <v>9888</v>
       </c>
     </row>
     <row r="790" spans="1:6">
@@ -61724,22 +61688,22 @@
     </row>
     <row r="812" spans="1:6">
       <c r="A812" t="s">
-        <v>9655</v>
+        <v>9654</v>
       </c>
       <c r="B812" t="s">
-        <v>9650</v>
+        <v>9649</v>
       </c>
       <c r="C812" t="s">
         <v>2956</v>
       </c>
       <c r="D812" t="s">
-        <v>9837</v>
+        <v>9835</v>
       </c>
       <c r="E812" t="s">
+        <v>9655</v>
+      </c>
+      <c r="F812" t="s">
         <v>9656</v>
-      </c>
-      <c r="F812" t="s">
-        <v>9657</v>
       </c>
     </row>
     <row r="813" spans="1:6">
@@ -62143,22 +62107,22 @@
     </row>
     <row r="834" spans="1:6">
       <c r="A834" t="s">
+        <v>9618</v>
+      </c>
+      <c r="B834" t="s">
         <v>9619</v>
-      </c>
-      <c r="B834" t="s">
-        <v>9620</v>
       </c>
       <c r="C834" t="s">
         <v>217</v>
       </c>
       <c r="D834" t="s">
-        <v>9827</v>
+        <v>9825</v>
       </c>
       <c r="E834" t="s">
+        <v>9620</v>
+      </c>
+      <c r="F834" t="s">
         <v>9621</v>
-      </c>
-      <c r="F834" t="s">
-        <v>9622</v>
       </c>
     </row>
     <row r="835" spans="1:6">
@@ -62833,16 +62797,16 @@
         <v>7043</v>
       </c>
       <c r="B870" t="s">
-        <v>9632</v>
+        <v>9631</v>
       </c>
       <c r="D870" t="s">
         <v>9309</v>
       </c>
       <c r="E870" t="s">
+        <v>9637</v>
+      </c>
+      <c r="F870" t="s">
         <v>9638</v>
-      </c>
-      <c r="F870" t="s">
-        <v>9639</v>
       </c>
     </row>
     <row r="871" spans="1:6">
@@ -63432,7 +63396,7 @@
         <v>2111</v>
       </c>
       <c r="D901" s="1" t="s">
-        <v>9535</v>
+        <v>9534</v>
       </c>
       <c r="E901" s="1" t="s">
         <v>2228</v>
@@ -64322,22 +64286,22 @@
     </row>
     <row r="947" spans="1:6">
       <c r="A947" t="s">
+        <v>9563</v>
+      </c>
+      <c r="B947" t="s">
         <v>9564</v>
-      </c>
-      <c r="B947" t="s">
-        <v>9565</v>
       </c>
       <c r="C947" t="s">
         <v>217</v>
       </c>
       <c r="D947" t="s">
-        <v>9590</v>
+        <v>9589</v>
       </c>
       <c r="E947" t="s">
+        <v>9565</v>
+      </c>
+      <c r="F947" t="s">
         <v>9566</v>
-      </c>
-      <c r="F947" t="s">
-        <v>9567</v>
       </c>
     </row>
     <row r="948" spans="1:6">
@@ -64430,22 +64394,22 @@
     </row>
     <row r="953" spans="1:6">
       <c r="A953" t="s">
+        <v>9604</v>
+      </c>
+      <c r="B953" t="s">
         <v>9605</v>
-      </c>
-      <c r="B953" t="s">
-        <v>9606</v>
       </c>
       <c r="C953" t="s">
         <v>709</v>
       </c>
       <c r="D953" t="s">
-        <v>9824</v>
+        <v>9822</v>
       </c>
       <c r="E953" t="s">
+        <v>9606</v>
+      </c>
+      <c r="F953" t="s">
         <v>9607</v>
-      </c>
-      <c r="F953" t="s">
-        <v>9608</v>
       </c>
     </row>
     <row r="954" spans="1:6">
@@ -66437,22 +66401,22 @@
     </row>
     <row r="1058" spans="1:6">
       <c r="A1058" t="s">
+        <v>9541</v>
+      </c>
+      <c r="B1058" t="s">
         <v>9542</v>
-      </c>
-      <c r="B1058" t="s">
-        <v>9543</v>
       </c>
       <c r="C1058" t="s">
         <v>709</v>
       </c>
       <c r="D1058" t="s">
-        <v>9594</v>
+        <v>9593</v>
       </c>
       <c r="E1058" t="s">
+        <v>9543</v>
+      </c>
+      <c r="F1058" t="s">
         <v>9544</v>
-      </c>
-      <c r="F1058" t="s">
-        <v>9545</v>
       </c>
     </row>
     <row r="1059" spans="1:6">
@@ -67695,42 +67659,42 @@
     </row>
     <row r="1123" spans="1:6">
       <c r="A1123" t="s">
-        <v>9762</v>
+        <v>9760</v>
       </c>
       <c r="B1123" t="s">
-        <v>9763</v>
+        <v>9761</v>
       </c>
       <c r="C1123" t="s">
         <v>2111</v>
       </c>
       <c r="D1123" t="s">
-        <v>9858</v>
+        <v>9856</v>
       </c>
       <c r="E1123" t="s">
-        <v>9764</v>
+        <v>9762</v>
       </c>
       <c r="F1123" t="s">
-        <v>9765</v>
+        <v>9763</v>
       </c>
     </row>
     <row r="1124" spans="1:6">
       <c r="A1124" t="s">
-        <v>9766</v>
+        <v>9764</v>
       </c>
       <c r="B1124" t="s">
-        <v>9763</v>
+        <v>9761</v>
       </c>
       <c r="C1124" t="s">
         <v>2111</v>
       </c>
       <c r="D1124" t="s">
-        <v>9859</v>
+        <v>9857</v>
       </c>
       <c r="E1124" t="s">
-        <v>9767</v>
+        <v>9765</v>
       </c>
       <c r="F1124" t="s">
-        <v>9768</v>
+        <v>9766</v>
       </c>
     </row>
     <row r="1125" spans="1:6">
@@ -68479,19 +68443,19 @@
     </row>
     <row r="1164" spans="1:6">
       <c r="A1164" t="s">
+        <v>9718</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>9714</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>9850</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>9719</v>
+      </c>
+      <c r="F1164" t="s">
         <v>9720</v>
-      </c>
-      <c r="B1164" t="s">
-        <v>9716</v>
-      </c>
-      <c r="D1164" t="s">
-        <v>9852</v>
-      </c>
-      <c r="E1164" t="s">
-        <v>9721</v>
-      </c>
-      <c r="F1164" t="s">
-        <v>9722</v>
       </c>
     </row>
     <row r="1165" spans="1:6">
@@ -68505,7 +68469,7 @@
         <v>204</v>
       </c>
       <c r="D1165" s="1" t="s">
-        <v>9531</v>
+        <v>9530</v>
       </c>
       <c r="F1165" t="s">
         <v>212</v>
@@ -69645,19 +69609,19 @@
     </row>
     <row r="1225" spans="1:6">
       <c r="A1225" t="s">
+        <v>9681</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>9672</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>9841</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>9682</v>
+      </c>
+      <c r="F1225" t="s">
         <v>9683</v>
-      </c>
-      <c r="B1225" t="s">
-        <v>9674</v>
-      </c>
-      <c r="D1225" t="s">
-        <v>9843</v>
-      </c>
-      <c r="E1225" t="s">
-        <v>9684</v>
-      </c>
-      <c r="F1225" t="s">
-        <v>9685</v>
       </c>
     </row>
     <row r="1226" spans="1:6">
@@ -70951,7 +70915,7 @@
         <v>2551</v>
       </c>
       <c r="D1293" s="1" t="s">
-        <v>9500</v>
+        <v>9499</v>
       </c>
       <c r="E1293" s="1" t="s">
         <v>2559</v>
@@ -71059,7 +71023,7 @@
         <v>2956</v>
       </c>
       <c r="D1299" s="1" t="s">
-        <v>9501</v>
+        <v>9500</v>
       </c>
       <c r="E1299" s="1" t="s">
         <v>2989</v>
@@ -71150,22 +71114,22 @@
     </row>
     <row r="1304" spans="1:6">
       <c r="A1304" t="s">
-        <v>9667</v>
+        <v>9666</v>
       </c>
       <c r="B1304" t="s">
-        <v>9665</v>
+        <v>9664</v>
       </c>
       <c r="C1304" t="s">
         <v>217</v>
       </c>
       <c r="D1304" t="s">
-        <v>9840</v>
+        <v>9838</v>
       </c>
       <c r="E1304" t="s">
-        <v>9668</v>
+        <v>9929</v>
       </c>
       <c r="F1304" t="s">
-        <v>9669</v>
+        <v>9667</v>
       </c>
     </row>
     <row r="1305" spans="1:6">
@@ -71290,7 +71254,7 @@
         <v>7</v>
       </c>
       <c r="D1311" s="1" t="s">
-        <v>9502</v>
+        <v>9501</v>
       </c>
       <c r="E1311" s="1" t="s">
         <v>4930</v>
@@ -71624,7 +71588,7 @@
         <v>4338</v>
       </c>
       <c r="D1328" s="1" t="s">
-        <v>9533</v>
+        <v>9532</v>
       </c>
       <c r="E1328" s="1" t="s">
         <v>4353</v>
@@ -71644,7 +71608,7 @@
         <v>4338</v>
       </c>
       <c r="D1329" s="1" t="s">
-        <v>9534</v>
+        <v>9533</v>
       </c>
       <c r="E1329" s="1" t="s">
         <v>4356</v>
@@ -72160,7 +72124,7 @@
         <v>1702</v>
       </c>
       <c r="D1356" s="4" t="s">
-        <v>9503</v>
+        <v>9502</v>
       </c>
       <c r="E1356" s="4" t="s">
         <v>7234</v>
@@ -73300,7 +73264,7 @@
         <v>8</v>
       </c>
       <c r="D1416" s="1" t="s">
-        <v>9494</v>
+        <v>9493</v>
       </c>
       <c r="E1416" s="1" t="s">
         <v>167</v>
@@ -73320,7 +73284,7 @@
         <v>8</v>
       </c>
       <c r="D1417" s="1" t="s">
-        <v>9493</v>
+        <v>9492</v>
       </c>
       <c r="E1417" s="1" t="s">
         <v>171</v>
@@ -73465,22 +73429,22 @@
     </row>
     <row r="1425" spans="1:6">
       <c r="A1425" t="s">
+        <v>9581</v>
+      </c>
+      <c r="B1425" t="s">
         <v>9582</v>
-      </c>
-      <c r="B1425" t="s">
-        <v>9583</v>
       </c>
       <c r="C1425" t="s">
         <v>2956</v>
       </c>
       <c r="D1425" t="s">
-        <v>9597</v>
+        <v>9596</v>
       </c>
       <c r="E1425" t="s">
+        <v>9583</v>
+      </c>
+      <c r="F1425" t="s">
         <v>9584</v>
-      </c>
-      <c r="F1425" t="s">
-        <v>9585</v>
       </c>
     </row>
     <row r="1426" spans="1:6">
@@ -74699,22 +74663,22 @@
     </row>
     <row r="1490" spans="1:6">
       <c r="A1490" t="s">
+        <v>9809</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>9810</v>
+      </c>
+      <c r="C1490" t="s">
         <v>9811</v>
       </c>
-      <c r="B1490" t="s">
+      <c r="D1490" t="s">
         <v>9812</v>
       </c>
-      <c r="C1490" t="s">
+      <c r="E1490" t="s">
         <v>9813</v>
       </c>
-      <c r="D1490" t="s">
+      <c r="F1490" t="s">
         <v>9814</v>
-      </c>
-      <c r="E1490" t="s">
-        <v>9815</v>
-      </c>
-      <c r="F1490" t="s">
-        <v>9816</v>
       </c>
     </row>
     <row r="1491" spans="1:6">
@@ -74913,19 +74877,19 @@
     </row>
     <row r="1501" spans="1:6">
       <c r="A1501" t="s">
+        <v>9715</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>9714</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>9849</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>9716</v>
+      </c>
+      <c r="F1501" t="s">
         <v>9717</v>
-      </c>
-      <c r="B1501" t="s">
-        <v>9716</v>
-      </c>
-      <c r="D1501" t="s">
-        <v>9851</v>
-      </c>
-      <c r="E1501" t="s">
-        <v>9718</v>
-      </c>
-      <c r="F1501" t="s">
-        <v>9719</v>
       </c>
     </row>
     <row r="1502" spans="1:6">
@@ -75044,22 +75008,22 @@
     </row>
     <row r="1508" spans="1:6">
       <c r="A1508" t="s">
+        <v>9626</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>9623</v>
+      </c>
+      <c r="C1508" t="s">
         <v>9627</v>
       </c>
-      <c r="B1508" t="s">
-        <v>9624</v>
-      </c>
-      <c r="C1508" t="s">
+      <c r="D1508" t="s">
+        <v>9827</v>
+      </c>
+      <c r="E1508" t="s">
         <v>9628</v>
       </c>
-      <c r="D1508" t="s">
-        <v>9829</v>
-      </c>
-      <c r="E1508" t="s">
+      <c r="F1508" t="s">
         <v>9629</v>
-      </c>
-      <c r="F1508" t="s">
-        <v>9630</v>
       </c>
     </row>
     <row r="1509" spans="1:6">
@@ -75113,7 +75077,7 @@
         <v>6059</v>
       </c>
       <c r="D1511" s="1" t="s">
-        <v>9492</v>
+        <v>9491</v>
       </c>
       <c r="E1511" s="1" t="s">
         <v>6078</v>
@@ -77665,19 +77629,19 @@
     </row>
     <row r="1644" spans="1:6">
       <c r="A1644" t="s">
+        <v>9559</v>
+      </c>
+      <c r="B1644" t="s">
         <v>9560</v>
       </c>
-      <c r="B1644" t="s">
+      <c r="D1644" t="s">
+        <v>9588</v>
+      </c>
+      <c r="E1644" t="s">
         <v>9561</v>
       </c>
-      <c r="D1644" t="s">
-        <v>9589</v>
-      </c>
-      <c r="E1644" t="s">
+      <c r="F1644" t="s">
         <v>9562</v>
-      </c>
-      <c r="F1644" t="s">
-        <v>9563</v>
       </c>
     </row>
     <row r="1645" spans="1:6">
@@ -77978,19 +77942,19 @@
     </row>
     <row r="1661" spans="1:6">
       <c r="A1661" t="s">
+        <v>9608</v>
+      </c>
+      <c r="B1661" t="s">
         <v>9609</v>
       </c>
-      <c r="B1661" t="s">
+      <c r="D1661" t="s">
+        <v>9823</v>
+      </c>
+      <c r="E1661" t="s">
         <v>9610</v>
       </c>
-      <c r="D1661" t="s">
-        <v>9825</v>
-      </c>
-      <c r="E1661" t="s">
+      <c r="F1661" t="s">
         <v>9611</v>
-      </c>
-      <c r="F1661" t="s">
-        <v>9612</v>
       </c>
     </row>
     <row r="1662" spans="1:6">
@@ -78163,39 +78127,39 @@
     </row>
     <row r="1671" spans="1:6">
       <c r="A1671" t="s">
+        <v>9798</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>9786</v>
+      </c>
+      <c r="D1671" t="s">
+        <v>9866</v>
+      </c>
+      <c r="E1671" t="s">
+        <v>9799</v>
+      </c>
+      <c r="F1671" t="s">
         <v>9800</v>
-      </c>
-      <c r="B1671" t="s">
-        <v>9788</v>
-      </c>
-      <c r="D1671" t="s">
-        <v>9868</v>
-      </c>
-      <c r="E1671" t="s">
-        <v>9801</v>
-      </c>
-      <c r="F1671" t="s">
-        <v>9802</v>
       </c>
     </row>
     <row r="1672" spans="1:6">
       <c r="A1672" t="s">
-        <v>9699</v>
+        <v>9697</v>
       </c>
       <c r="B1672" t="s">
-        <v>9700</v>
+        <v>9698</v>
       </c>
       <c r="C1672" t="s">
         <v>709</v>
       </c>
       <c r="D1672" t="s">
-        <v>9847</v>
+        <v>9845</v>
       </c>
       <c r="E1672" t="s">
-        <v>9701</v>
+        <v>9699</v>
       </c>
       <c r="F1672" t="s">
-        <v>9702</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="1673" spans="1:6">
@@ -78368,42 +78332,42 @@
     </row>
     <row r="1682" spans="1:6" ht="66">
       <c r="A1682" t="s">
-        <v>9780</v>
+        <v>9778</v>
       </c>
       <c r="B1682" t="s">
-        <v>9774</v>
+        <v>9772</v>
       </c>
       <c r="C1682" t="s">
         <v>709</v>
       </c>
       <c r="D1682" s="3" t="s">
-        <v>9883</v>
+        <v>9881</v>
       </c>
       <c r="E1682" t="s">
-        <v>9781</v>
+        <v>9779</v>
       </c>
       <c r="F1682" t="s">
-        <v>9782</v>
+        <v>9780</v>
       </c>
     </row>
     <row r="1683" spans="1:6">
       <c r="A1683" t="s">
+        <v>9548</v>
+      </c>
+      <c r="B1683" t="s">
         <v>9549</v>
-      </c>
-      <c r="B1683" t="s">
-        <v>9550</v>
       </c>
       <c r="C1683" t="s">
         <v>2956</v>
       </c>
       <c r="D1683" t="s">
-        <v>9587</v>
+        <v>9586</v>
       </c>
       <c r="E1683" t="s">
+        <v>9550</v>
+      </c>
+      <c r="F1683" t="s">
         <v>9551</v>
-      </c>
-      <c r="F1683" t="s">
-        <v>9552</v>
       </c>
     </row>
     <row r="1684" spans="1:6">
@@ -78536,22 +78500,22 @@
     </row>
     <row r="1691" spans="1:6">
       <c r="A1691" t="s">
+        <v>9555</v>
+      </c>
+      <c r="B1691" t="s">
         <v>9556</v>
-      </c>
-      <c r="B1691" t="s">
-        <v>9557</v>
       </c>
       <c r="C1691" t="s">
         <v>2956</v>
       </c>
       <c r="D1691" t="s">
-        <v>9588</v>
+        <v>9587</v>
       </c>
       <c r="E1691" t="s">
+        <v>9557</v>
+      </c>
+      <c r="F1691" t="s">
         <v>9558</v>
-      </c>
-      <c r="F1691" t="s">
-        <v>9559</v>
       </c>
     </row>
     <row r="1692" spans="1:6">
@@ -78844,7 +78808,7 @@
         <v>1067</v>
       </c>
       <c r="B1707" s="1" t="s">
-        <v>9541</v>
+        <v>9540</v>
       </c>
       <c r="C1707" s="1" t="s">
         <v>870</v>
@@ -78864,7 +78828,7 @@
         <v>1067</v>
       </c>
       <c r="B1708" t="s">
-        <v>9918</v>
+        <v>9916</v>
       </c>
       <c r="C1708" t="s">
         <v>870</v>
@@ -79873,19 +79837,19 @@
     </row>
     <row r="1761" spans="1:6">
       <c r="A1761" t="s">
+        <v>9721</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>9722</v>
+      </c>
+      <c r="D1761" t="s">
+        <v>9851</v>
+      </c>
+      <c r="E1761" t="s">
         <v>9723</v>
       </c>
-      <c r="B1761" t="s">
+      <c r="F1761" t="s">
         <v>9724</v>
-      </c>
-      <c r="D1761" t="s">
-        <v>9853</v>
-      </c>
-      <c r="E1761" t="s">
-        <v>9725</v>
-      </c>
-      <c r="F1761" t="s">
-        <v>9726</v>
       </c>
     </row>
     <row r="1762" spans="1:6">
@@ -81000,7 +80964,7 @@
         <v>2551</v>
       </c>
       <c r="D1819" s="1" t="s">
-        <v>9505</v>
+        <v>9504</v>
       </c>
       <c r="E1819" s="1" t="s">
         <v>2555</v>
@@ -81020,7 +80984,7 @@
         <v>2551</v>
       </c>
       <c r="D1820" s="1" t="s">
-        <v>9506</v>
+        <v>9505</v>
       </c>
       <c r="E1820" s="1" t="s">
         <v>2552</v>
@@ -81399,7 +81363,7 @@
         <v>1945</v>
       </c>
       <c r="D1840" s="1" t="s">
-        <v>9504</v>
+        <v>9503</v>
       </c>
       <c r="E1840" s="1" t="s">
         <v>2069</v>
@@ -81550,7 +81514,7 @@
         <v>87</v>
       </c>
       <c r="D1848" s="1" t="s">
-        <v>9507</v>
+        <v>9506</v>
       </c>
       <c r="E1848" s="1" t="s">
         <v>4995</v>
@@ -81774,22 +81738,22 @@
     </row>
     <row r="1861" spans="1:6">
       <c r="A1861" t="s">
-        <v>9727</v>
+        <v>9725</v>
       </c>
       <c r="B1861" t="s">
-        <v>9728</v>
+        <v>9726</v>
       </c>
       <c r="C1861" t="s">
         <v>1945</v>
       </c>
       <c r="D1861" t="s">
-        <v>9854</v>
+        <v>9852</v>
       </c>
       <c r="E1861" t="s">
-        <v>9729</v>
+        <v>9727</v>
       </c>
       <c r="F1861" t="s">
-        <v>9730</v>
+        <v>9728</v>
       </c>
     </row>
     <row r="1862" spans="1:6" ht="33">
@@ -81803,7 +81767,7 @@
         <v>1945</v>
       </c>
       <c r="D1862" s="4" t="s">
-        <v>9508</v>
+        <v>9507</v>
       </c>
       <c r="E1862" s="4" t="s">
         <v>5071</v>
@@ -81823,7 +81787,7 @@
         <v>1945</v>
       </c>
       <c r="D1863" s="4" t="s">
-        <v>9509</v>
+        <v>9508</v>
       </c>
       <c r="E1863" s="4" t="s">
         <v>5068</v>
@@ -82094,7 +82058,7 @@
         <v>3265</v>
       </c>
       <c r="D1877" s="1" t="s">
-        <v>9510</v>
+        <v>9509</v>
       </c>
       <c r="E1877" s="1" t="s">
         <v>3269</v>
@@ -82114,7 +82078,7 @@
         <v>709</v>
       </c>
       <c r="D1878" s="1" t="s">
-        <v>9511</v>
+        <v>9510</v>
       </c>
       <c r="E1878" s="1" t="s">
         <v>1617</v>
@@ -82479,19 +82443,19 @@
     </row>
     <row r="1897" spans="1:6">
       <c r="A1897" t="s">
+        <v>9657</v>
+      </c>
+      <c r="B1897" t="s">
+        <v>9649</v>
+      </c>
+      <c r="D1897" t="s">
+        <v>9836</v>
+      </c>
+      <c r="E1897" t="s">
         <v>9658</v>
       </c>
-      <c r="B1897" t="s">
-        <v>9650</v>
-      </c>
-      <c r="D1897" t="s">
-        <v>9838</v>
-      </c>
-      <c r="E1897" t="s">
+      <c r="F1897" t="s">
         <v>9659</v>
-      </c>
-      <c r="F1897" t="s">
-        <v>9660</v>
       </c>
     </row>
     <row r="1898" spans="1:6">
@@ -82659,7 +82623,7 @@
         <v>709</v>
       </c>
       <c r="D1906" s="4" t="s">
-        <v>9512</v>
+        <v>9511</v>
       </c>
       <c r="E1906" s="4" t="s">
         <v>1390</v>
@@ -82690,19 +82654,19 @@
     </row>
     <row r="1908" spans="1:6">
       <c r="A1908" t="s">
+        <v>9736</v>
+      </c>
+      <c r="B1908" t="s">
+        <v>9737</v>
+      </c>
+      <c r="D1908" t="s">
+        <v>9854</v>
+      </c>
+      <c r="E1908" t="s">
         <v>9738</v>
       </c>
-      <c r="B1908" t="s">
+      <c r="F1908" t="s">
         <v>9739</v>
-      </c>
-      <c r="D1908" t="s">
-        <v>9856</v>
-      </c>
-      <c r="E1908" t="s">
-        <v>9740</v>
-      </c>
-      <c r="F1908" t="s">
-        <v>9741</v>
       </c>
     </row>
     <row r="1909" spans="1:6">
@@ -83107,7 +83071,7 @@
         <v>7</v>
       </c>
       <c r="D1929" s="4" t="s">
-        <v>9513</v>
+        <v>9512</v>
       </c>
       <c r="E1929" s="4" t="s">
         <v>5633</v>
@@ -83127,7 +83091,7 @@
         <v>3444</v>
       </c>
       <c r="D1930" s="1" t="s">
-        <v>9514</v>
+        <v>9513</v>
       </c>
       <c r="E1930" s="1" t="s">
         <v>3461</v>
@@ -83603,22 +83567,22 @@
     </row>
     <row r="1955" spans="1:6">
       <c r="A1955" t="s">
-        <v>9670</v>
+        <v>9668</v>
       </c>
       <c r="B1955" t="s">
-        <v>9665</v>
+        <v>9664</v>
       </c>
       <c r="C1955" t="s">
         <v>2956</v>
       </c>
       <c r="D1955" t="s">
-        <v>9841</v>
+        <v>9839</v>
       </c>
       <c r="E1955" t="s">
-        <v>9671</v>
+        <v>9669</v>
       </c>
       <c r="F1955" t="s">
-        <v>9672</v>
+        <v>9670</v>
       </c>
     </row>
     <row r="1956" spans="1:6">
@@ -84114,7 +84078,7 @@
         <v>2956</v>
       </c>
       <c r="D1981" s="1" t="s">
-        <v>9515</v>
+        <v>9514</v>
       </c>
       <c r="E1981" s="1" t="s">
         <v>3214</v>
@@ -84356,7 +84320,7 @@
         <v>2858</v>
       </c>
       <c r="D1994" s="1" t="s">
-        <v>9516</v>
+        <v>9515</v>
       </c>
       <c r="E1994" s="1" t="s">
         <v>2932</v>
@@ -85039,22 +85003,22 @@
     </row>
     <row r="2031" spans="1:6">
       <c r="A2031" t="s">
-        <v>9576</v>
+        <v>9575</v>
       </c>
       <c r="B2031" t="s">
-        <v>9573</v>
+        <v>9572</v>
       </c>
       <c r="C2031" t="s">
         <v>709</v>
       </c>
       <c r="D2031" t="s">
-        <v>9592</v>
+        <v>9591</v>
       </c>
       <c r="E2031" t="s">
+        <v>9576</v>
+      </c>
+      <c r="F2031" t="s">
         <v>9577</v>
-      </c>
-      <c r="F2031" t="s">
-        <v>9578</v>
       </c>
     </row>
     <row r="2032" spans="1:6">
@@ -85721,7 +85685,7 @@
         <v>709</v>
       </c>
       <c r="D2066" s="1" t="s">
-        <v>9523</v>
+        <v>9522</v>
       </c>
       <c r="E2066" s="1" t="s">
         <v>1584</v>
@@ -85741,7 +85705,7 @@
         <v>709</v>
       </c>
       <c r="D2067" s="1" t="s">
-        <v>9522</v>
+        <v>9521</v>
       </c>
       <c r="E2067" s="1" t="s">
         <v>1587</v>
@@ -85761,7 +85725,7 @@
         <v>709</v>
       </c>
       <c r="D2068" s="4" t="s">
-        <v>9517</v>
+        <v>9516</v>
       </c>
       <c r="E2068" s="4" t="s">
         <v>1639</v>
@@ -85821,7 +85785,7 @@
         <v>2669</v>
       </c>
       <c r="D2071" s="4" t="s">
-        <v>9518</v>
+        <v>9517</v>
       </c>
       <c r="E2071" s="4" t="s">
         <v>2698</v>
@@ -85841,7 +85805,7 @@
         <v>2669</v>
       </c>
       <c r="D2072" s="4" t="s">
-        <v>9519</v>
+        <v>9518</v>
       </c>
       <c r="E2072" s="4" t="s">
         <v>2695</v>
@@ -85852,19 +85816,19 @@
     </row>
     <row r="2073" spans="1:6" ht="82.5">
       <c r="A2073" t="s">
+        <v>9740</v>
+      </c>
+      <c r="B2073" t="s">
+        <v>9737</v>
+      </c>
+      <c r="D2073" s="3" t="s">
+        <v>9876</v>
+      </c>
+      <c r="E2073" t="s">
+        <v>9741</v>
+      </c>
+      <c r="F2073" t="s">
         <v>9742</v>
-      </c>
-      <c r="B2073" t="s">
-        <v>9739</v>
-      </c>
-      <c r="D2073" s="3" t="s">
-        <v>9878</v>
-      </c>
-      <c r="E2073" t="s">
-        <v>9743</v>
-      </c>
-      <c r="F2073" t="s">
-        <v>9744</v>
       </c>
     </row>
     <row r="2074" spans="1:6">
@@ -85878,7 +85842,7 @@
         <v>709</v>
       </c>
       <c r="D2074" s="1" t="s">
-        <v>9524</v>
+        <v>9523</v>
       </c>
       <c r="E2074" s="1" t="s">
         <v>1593</v>
@@ -85898,7 +85862,7 @@
         <v>709</v>
       </c>
       <c r="D2075" s="4" t="s">
-        <v>9520</v>
+        <v>9519</v>
       </c>
       <c r="E2075" s="4" t="s">
         <v>1286</v>
@@ -85918,7 +85882,7 @@
         <v>709</v>
       </c>
       <c r="D2076" s="1" t="s">
-        <v>9521</v>
+        <v>9520</v>
       </c>
       <c r="E2076" s="1" t="s">
         <v>1590</v>
@@ -86063,22 +86027,22 @@
     </row>
     <row r="2084" spans="1:6">
       <c r="A2084" t="s">
-        <v>9807</v>
+        <v>9805</v>
       </c>
       <c r="B2084" t="s">
-        <v>9808</v>
+        <v>9806</v>
       </c>
       <c r="C2084" t="s">
         <v>2111</v>
       </c>
       <c r="D2084" t="s">
-        <v>9870</v>
+        <v>9868</v>
       </c>
       <c r="E2084" t="s">
-        <v>9809</v>
+        <v>9807</v>
       </c>
       <c r="F2084" t="s">
-        <v>9810</v>
+        <v>9808</v>
       </c>
     </row>
     <row r="2085" spans="1:6">
@@ -86797,7 +86761,7 @@
         <v>4444</v>
       </c>
       <c r="D2121" s="1" t="s">
-        <v>9525</v>
+        <v>9524</v>
       </c>
       <c r="E2121" s="1" t="s">
         <v>4493</v>
@@ -88482,22 +88446,22 @@
     </row>
     <row r="2209" spans="1:6">
       <c r="A2209" t="s">
-        <v>9644</v>
+        <v>9643</v>
       </c>
       <c r="B2209" t="s">
-        <v>9641</v>
+        <v>9640</v>
       </c>
       <c r="C2209" t="s">
         <v>4260</v>
       </c>
       <c r="D2209" t="s">
-        <v>9833</v>
+        <v>9831</v>
       </c>
       <c r="E2209" t="s">
+        <v>9644</v>
+      </c>
+      <c r="F2209" t="s">
         <v>9645</v>
-      </c>
-      <c r="F2209" t="s">
-        <v>9646</v>
       </c>
     </row>
     <row r="2210" spans="1:6">
@@ -89075,7 +89039,7 @@
         <v>7</v>
       </c>
       <c r="D2240" s="1" t="s">
-        <v>9532</v>
+        <v>9531</v>
       </c>
       <c r="F2240" t="s">
         <v>5033</v>
@@ -90030,7 +89994,7 @@
         <v>6059</v>
       </c>
       <c r="D2290" s="1" t="s">
-        <v>9491</v>
+        <v>9490</v>
       </c>
       <c r="E2290" s="1" t="s">
         <v>6098</v>
@@ -90047,7 +90011,7 @@
         <v>3170</v>
       </c>
       <c r="D2291" s="1" t="s">
-        <v>9490</v>
+        <v>9489</v>
       </c>
       <c r="E2291" s="1" t="s">
         <v>6665</v>
@@ -90064,7 +90028,7 @@
         <v>2110</v>
       </c>
       <c r="D2292" s="1" t="s">
-        <v>9489</v>
+        <v>9488</v>
       </c>
       <c r="E2292" s="1" t="s">
         <v>6656</v>
@@ -90081,7 +90045,7 @@
         <v>3170</v>
       </c>
       <c r="D2293" s="1" t="s">
-        <v>9488</v>
+        <v>9487</v>
       </c>
       <c r="E2293" s="1" t="s">
         <v>6668</v>
@@ -90098,7 +90062,7 @@
         <v>3170</v>
       </c>
       <c r="D2294" s="1" t="s">
-        <v>9487</v>
+        <v>9486</v>
       </c>
       <c r="E2294" s="1" t="s">
         <v>6662</v>
@@ -90115,7 +90079,7 @@
         <v>93</v>
       </c>
       <c r="D2295" s="1" t="s">
-        <v>9486</v>
+        <v>9485</v>
       </c>
       <c r="E2295" s="1" t="s">
         <v>9416</v>
@@ -90132,7 +90096,7 @@
         <v>3170</v>
       </c>
       <c r="D2296" s="1" t="s">
-        <v>9485</v>
+        <v>9484</v>
       </c>
       <c r="E2296" s="1" t="s">
         <v>6659</v>
@@ -90149,7 +90113,7 @@
         <v>93</v>
       </c>
       <c r="D2297" s="1" t="s">
-        <v>9484</v>
+        <v>9483</v>
       </c>
       <c r="E2297" s="1" t="s">
         <v>6673</v>
@@ -90229,7 +90193,7 @@
         <v>6035</v>
       </c>
       <c r="D2301" s="4" t="s">
-        <v>9527</v>
+        <v>9526</v>
       </c>
       <c r="E2301" s="4" t="s">
         <v>6047</v>
@@ -90309,7 +90273,7 @@
         <v>8</v>
       </c>
       <c r="D2305" s="1" t="s">
-        <v>9528</v>
+        <v>9527</v>
       </c>
       <c r="E2305" s="1" t="s">
         <v>57</v>
@@ -90591,7 +90555,7 @@
         <v>1067</v>
       </c>
       <c r="B2320" t="s">
-        <v>9541</v>
+        <v>9540</v>
       </c>
       <c r="C2320" s="1" t="s">
         <v>3723</v>
@@ -90657,7 +90621,7 @@
         <v>709</v>
       </c>
       <c r="D2323" s="1" t="s">
-        <v>9538</v>
+        <v>9537</v>
       </c>
       <c r="E2323" s="1" t="s">
         <v>1197</v>
@@ -90668,22 +90632,22 @@
     </row>
     <row r="2324" spans="1:6">
       <c r="A2324" t="s">
-        <v>9553</v>
+        <v>9552</v>
       </c>
       <c r="B2324" t="s">
-        <v>9550</v>
+        <v>9549</v>
       </c>
       <c r="C2324" t="s">
         <v>1891</v>
       </c>
       <c r="D2324" t="s">
-        <v>9595</v>
+        <v>9594</v>
       </c>
       <c r="E2324" t="s">
+        <v>9553</v>
+      </c>
+      <c r="F2324" t="s">
         <v>9554</v>
-      </c>
-      <c r="F2324" t="s">
-        <v>9555</v>
       </c>
     </row>
     <row r="2325" spans="1:6">
@@ -90725,13 +90689,13 @@
         <v>1067</v>
       </c>
       <c r="B2327" t="s">
-        <v>9821</v>
+        <v>9819</v>
       </c>
       <c r="C2327" t="s">
         <v>870</v>
       </c>
       <c r="D2327" t="s">
-        <v>9884</v>
+        <v>9882</v>
       </c>
       <c r="E2327" t="s">
         <v>1069</v>
@@ -90745,13 +90709,13 @@
         <v>1067</v>
       </c>
       <c r="B2328" t="s">
-        <v>9821</v>
+        <v>9819</v>
       </c>
       <c r="C2328" t="s">
         <v>3723</v>
       </c>
       <c r="D2328" t="s">
-        <v>9884</v>
+        <v>9882</v>
       </c>
       <c r="E2328" t="s">
         <v>3732</v>
@@ -90765,13 +90729,13 @@
         <v>1067</v>
       </c>
       <c r="B2329" t="s">
-        <v>9918</v>
+        <v>9916</v>
       </c>
       <c r="C2329" t="s">
         <v>3723</v>
       </c>
       <c r="D2329" t="s">
-        <v>9884</v>
+        <v>9882</v>
       </c>
       <c r="E2329" t="s">
         <v>3732</v>
@@ -90970,22 +90934,22 @@
     </row>
     <row r="2340" spans="1:6">
       <c r="A2340" t="s">
+        <v>9567</v>
+      </c>
+      <c r="B2340" t="s">
         <v>9568</v>
-      </c>
-      <c r="B2340" t="s">
-        <v>9569</v>
       </c>
       <c r="C2340" t="s">
         <v>4260</v>
       </c>
       <c r="D2340" t="s">
-        <v>9596</v>
+        <v>9595</v>
       </c>
       <c r="E2340" t="s">
+        <v>9569</v>
+      </c>
+      <c r="F2340" t="s">
         <v>9570</v>
-      </c>
-      <c r="F2340" t="s">
-        <v>9571</v>
       </c>
     </row>
     <row r="2341" spans="1:6">
@@ -91158,19 +91122,19 @@
     </row>
     <row r="2350" spans="1:6" ht="33">
       <c r="A2350" t="s">
+        <v>9732</v>
+      </c>
+      <c r="B2350" t="s">
+        <v>9733</v>
+      </c>
+      <c r="D2350" s="3" t="s">
+        <v>9875</v>
+      </c>
+      <c r="E2350" s="3" t="s">
         <v>9734</v>
       </c>
-      <c r="B2350" t="s">
+      <c r="F2350" t="s">
         <v>9735</v>
-      </c>
-      <c r="D2350" s="3" t="s">
-        <v>9877</v>
-      </c>
-      <c r="E2350" s="3" t="s">
-        <v>9736</v>
-      </c>
-      <c r="F2350" t="s">
-        <v>9737</v>
       </c>
     </row>
     <row r="2351" spans="1:6">
@@ -91489,42 +91453,42 @@
     </row>
     <row r="2367" spans="1:6">
       <c r="A2367" t="s">
-        <v>9602</v>
+        <v>9601</v>
       </c>
       <c r="B2367" t="s">
-        <v>9599</v>
+        <v>9598</v>
       </c>
       <c r="C2367" t="s">
         <v>2956</v>
       </c>
       <c r="D2367" t="s">
-        <v>9823</v>
+        <v>9821</v>
       </c>
       <c r="E2367" t="s">
+        <v>9602</v>
+      </c>
+      <c r="F2367" t="s">
         <v>9603</v>
-      </c>
-      <c r="F2367" t="s">
-        <v>9604</v>
       </c>
     </row>
     <row r="2368" spans="1:6">
       <c r="A2368" t="s">
+        <v>9597</v>
+      </c>
+      <c r="B2368" t="s">
         <v>9598</v>
-      </c>
-      <c r="B2368" t="s">
-        <v>9599</v>
       </c>
       <c r="C2368" t="s">
         <v>2956</v>
       </c>
       <c r="D2368" t="s">
-        <v>9822</v>
+        <v>9820</v>
       </c>
       <c r="E2368" t="s">
+        <v>9599</v>
+      </c>
+      <c r="F2368" t="s">
         <v>9600</v>
-      </c>
-      <c r="F2368" t="s">
-        <v>9601</v>
       </c>
     </row>
     <row r="2369" spans="1:6">
@@ -91780,19 +91744,19 @@
     </row>
     <row r="2382" spans="1:6">
       <c r="A2382" t="s">
+        <v>9545</v>
+      </c>
+      <c r="B2382" t="s">
+        <v>9542</v>
+      </c>
+      <c r="D2382" t="s">
+        <v>9585</v>
+      </c>
+      <c r="E2382" t="s">
         <v>9546</v>
       </c>
-      <c r="B2382" t="s">
-        <v>9543</v>
-      </c>
-      <c r="D2382" t="s">
-        <v>9586</v>
-      </c>
-      <c r="E2382" t="s">
+      <c r="F2382" t="s">
         <v>9547</v>
-      </c>
-      <c r="F2382" t="s">
-        <v>9548</v>
       </c>
     </row>
     <row r="2383" spans="1:6">
@@ -91817,22 +91781,22 @@
     </row>
     <row r="2384" spans="1:6">
       <c r="A2384" t="s">
-        <v>9695</v>
+        <v>9693</v>
       </c>
       <c r="B2384" t="s">
-        <v>9696</v>
+        <v>9694</v>
       </c>
       <c r="C2384" t="s">
         <v>217</v>
       </c>
       <c r="D2384" t="s">
-        <v>9846</v>
+        <v>9844</v>
       </c>
       <c r="E2384" t="s">
-        <v>9697</v>
+        <v>9695</v>
       </c>
       <c r="F2384" t="s">
-        <v>9698</v>
+        <v>9696</v>
       </c>
     </row>
     <row r="2385" spans="1:6">
@@ -92213,7 +92177,7 @@
         <v>390</v>
       </c>
       <c r="D2405" s="1" t="s">
-        <v>9483</v>
+        <v>9482</v>
       </c>
       <c r="E2405" s="1" t="s">
         <v>7022</v>
@@ -93611,7 +93575,7 @@
         <v>4258</v>
       </c>
       <c r="D2477" s="1" t="s">
-        <v>9529</v>
+        <v>9528</v>
       </c>
       <c r="E2477" s="1" t="s">
         <v>4258</v>
@@ -93776,36 +93740,36 @@
     </row>
     <row r="2486" spans="1:6">
       <c r="A2486" t="s">
+        <v>9785</v>
+      </c>
+      <c r="B2486" t="s">
+        <v>9786</v>
+      </c>
+      <c r="D2486" t="s">
+        <v>9862</v>
+      </c>
+      <c r="E2486" t="s">
+        <v>9788</v>
+      </c>
+      <c r="F2486" t="s">
         <v>9787</v>
-      </c>
-      <c r="B2486" t="s">
-        <v>9788</v>
-      </c>
-      <c r="D2486" t="s">
-        <v>9864</v>
-      </c>
-      <c r="E2486" t="s">
-        <v>9790</v>
-      </c>
-      <c r="F2486" t="s">
-        <v>9789</v>
       </c>
     </row>
     <row r="2487" spans="1:6">
       <c r="A2487" t="s">
+        <v>9789</v>
+      </c>
+      <c r="B2487" t="s">
+        <v>9786</v>
+      </c>
+      <c r="D2487" t="s">
+        <v>9863</v>
+      </c>
+      <c r="E2487" t="s">
         <v>9791</v>
       </c>
-      <c r="B2487" t="s">
-        <v>9788</v>
-      </c>
-      <c r="D2487" t="s">
-        <v>9865</v>
-      </c>
-      <c r="E2487" t="s">
-        <v>9793</v>
-      </c>
       <c r="F2487" t="s">
-        <v>9792</v>
+        <v>9790</v>
       </c>
     </row>
     <row r="2488" spans="1:6">
@@ -94637,7 +94601,7 @@
         <v>6059</v>
       </c>
       <c r="D2531" s="1" t="s">
-        <v>9481</v>
+        <v>9480</v>
       </c>
       <c r="E2531" s="1" t="s">
         <v>6095</v>
@@ -94691,7 +94655,7 @@
         <v>1949</v>
       </c>
       <c r="D2534" s="4" t="s">
-        <v>9482</v>
+        <v>9481</v>
       </c>
       <c r="E2534" s="4" t="s">
         <v>7125</v>
@@ -94702,36 +94666,36 @@
     </row>
     <row r="2535" spans="1:6">
       <c r="A2535" t="s">
+        <v>9792</v>
+      </c>
+      <c r="B2535" t="s">
+        <v>9786</v>
+      </c>
+      <c r="D2535" t="s">
+        <v>9864</v>
+      </c>
+      <c r="E2535" t="s">
+        <v>9793</v>
+      </c>
+      <c r="F2535" t="s">
         <v>9794</v>
-      </c>
-      <c r="B2535" t="s">
-        <v>9788</v>
-      </c>
-      <c r="D2535" t="s">
-        <v>9866</v>
-      </c>
-      <c r="E2535" t="s">
-        <v>9795</v>
-      </c>
-      <c r="F2535" t="s">
-        <v>9796</v>
       </c>
     </row>
     <row r="2536" spans="1:6">
       <c r="A2536" t="s">
+        <v>9795</v>
+      </c>
+      <c r="B2536" t="s">
+        <v>9786</v>
+      </c>
+      <c r="D2536" t="s">
+        <v>9865</v>
+      </c>
+      <c r="E2536" t="s">
+        <v>9796</v>
+      </c>
+      <c r="F2536" t="s">
         <v>9797</v>
-      </c>
-      <c r="B2536" t="s">
-        <v>9788</v>
-      </c>
-      <c r="D2536" t="s">
-        <v>9867</v>
-      </c>
-      <c r="E2536" t="s">
-        <v>9798</v>
-      </c>
-      <c r="F2536" t="s">
-        <v>9799</v>
       </c>
     </row>
     <row r="2537" spans="1:6">
@@ -94981,22 +94945,22 @@
     </row>
     <row r="2550" spans="1:6">
       <c r="A2550" t="s">
+        <v>9639</v>
+      </c>
+      <c r="B2550" t="s">
         <v>9640</v>
-      </c>
-      <c r="B2550" t="s">
-        <v>9641</v>
       </c>
       <c r="C2550" t="s">
         <v>217</v>
       </c>
       <c r="D2550" t="s">
-        <v>9832</v>
+        <v>9830</v>
       </c>
       <c r="E2550" t="s">
+        <v>9641</v>
+      </c>
+      <c r="F2550" t="s">
         <v>9642</v>
-      </c>
-      <c r="F2550" t="s">
-        <v>9643</v>
       </c>
     </row>
     <row r="2551" spans="1:6">
@@ -95551,19 +95515,19 @@
     </row>
     <row r="2580" spans="1:6">
       <c r="A2580" t="s">
+        <v>9660</v>
+      </c>
+      <c r="B2580" t="s">
+        <v>9649</v>
+      </c>
+      <c r="D2580" t="s">
+        <v>9837</v>
+      </c>
+      <c r="E2580" t="s">
         <v>9661</v>
       </c>
-      <c r="B2580" t="s">
-        <v>9650</v>
-      </c>
-      <c r="D2580" t="s">
-        <v>9839</v>
-      </c>
-      <c r="E2580" t="s">
+      <c r="F2580" t="s">
         <v>9662</v>
-      </c>
-      <c r="F2580" t="s">
-        <v>9663</v>
       </c>
     </row>
     <row r="2581" spans="1:6">
@@ -96176,7 +96140,7 @@
         <v>204</v>
       </c>
       <c r="D2612" s="1" t="s">
-        <v>9530</v>
+        <v>9529</v>
       </c>
       <c r="F2612" t="s">
         <v>214</v>
@@ -96193,7 +96157,7 @@
         <v>8</v>
       </c>
       <c r="D2613" s="1" t="s">
-        <v>9530</v>
+        <v>9529</v>
       </c>
       <c r="E2613" s="1" t="s">
         <v>190</v>
@@ -96527,7 +96491,7 @@
         <v>709</v>
       </c>
       <c r="D2630" s="1" t="s">
-        <v>9885</v>
+        <v>9883</v>
       </c>
       <c r="E2630" s="1" t="s">
         <v>1293</v>
@@ -96795,101 +96759,101 @@
     </row>
     <row r="2644" spans="1:6">
       <c r="A2644" t="s">
+        <v>9904</v>
+      </c>
+      <c r="B2644" t="s">
+        <v>9885</v>
+      </c>
+      <c r="D2644" t="s">
+        <v>9920</v>
+      </c>
+      <c r="E2644" t="s">
+        <v>9905</v>
+      </c>
+      <c r="F2644" t="s">
         <v>9906</v>
-      </c>
-      <c r="B2644" t="s">
-        <v>9887</v>
-      </c>
-      <c r="D2644" t="s">
-        <v>9922</v>
-      </c>
-      <c r="E2644" t="s">
-        <v>9907</v>
-      </c>
-      <c r="F2644" t="s">
-        <v>9908</v>
       </c>
     </row>
     <row r="2645" spans="1:6">
       <c r="A2645" t="s">
+        <v>9907</v>
+      </c>
+      <c r="B2645" t="s">
+        <v>9885</v>
+      </c>
+      <c r="D2645" t="s">
+        <v>9921</v>
+      </c>
+      <c r="E2645" t="s">
+        <v>9908</v>
+      </c>
+      <c r="F2645" t="s">
         <v>9909</v>
-      </c>
-      <c r="B2645" t="s">
-        <v>9887</v>
-      </c>
-      <c r="D2645" t="s">
-        <v>9923</v>
-      </c>
-      <c r="E2645" t="s">
-        <v>9910</v>
-      </c>
-      <c r="F2645" t="s">
-        <v>9911</v>
       </c>
     </row>
     <row r="2646" spans="1:6">
       <c r="A2646" t="s">
+        <v>9910</v>
+      </c>
+      <c r="B2646" t="s">
+        <v>9885</v>
+      </c>
+      <c r="D2646" t="s">
+        <v>9922</v>
+      </c>
+      <c r="E2646" t="s">
         <v>9912</v>
       </c>
-      <c r="B2646" t="s">
-        <v>9887</v>
-      </c>
-      <c r="D2646" t="s">
-        <v>9924</v>
-      </c>
-      <c r="E2646" t="s">
-        <v>9914</v>
-      </c>
       <c r="F2646" t="s">
-        <v>9913</v>
+        <v>9911</v>
       </c>
     </row>
     <row r="2647" spans="1:6">
       <c r="A2647" t="s">
+        <v>9892</v>
+      </c>
+      <c r="B2647" t="s">
+        <v>9885</v>
+      </c>
+      <c r="D2647" t="s">
+        <v>9923</v>
+      </c>
+      <c r="E2647" t="s">
+        <v>9893</v>
+      </c>
+      <c r="F2647" t="s">
         <v>9894</v>
-      </c>
-      <c r="B2647" t="s">
-        <v>9887</v>
-      </c>
-      <c r="D2647" t="s">
-        <v>9925</v>
-      </c>
-      <c r="E2647" t="s">
-        <v>9895</v>
-      </c>
-      <c r="F2647" t="s">
-        <v>9896</v>
       </c>
     </row>
     <row r="2648" spans="1:6">
       <c r="A2648" t="s">
+        <v>9901</v>
+      </c>
+      <c r="B2648" t="s">
+        <v>9885</v>
+      </c>
+      <c r="D2648" t="s">
+        <v>9924</v>
+      </c>
+      <c r="E2648" t="s">
+        <v>9902</v>
+      </c>
+      <c r="F2648" t="s">
         <v>9903</v>
-      </c>
-      <c r="B2648" t="s">
-        <v>9887</v>
-      </c>
-      <c r="D2648" t="s">
-        <v>9926</v>
-      </c>
-      <c r="E2648" t="s">
-        <v>9904</v>
-      </c>
-      <c r="F2648" t="s">
-        <v>9905</v>
       </c>
     </row>
     <row r="2649" spans="1:6">
       <c r="A2649" t="s">
-        <v>9891</v>
+        <v>9889</v>
       </c>
       <c r="B2649" t="s">
-        <v>9887</v>
+        <v>9885</v>
       </c>
       <c r="D2649" t="s">
-        <v>9927</v>
+        <v>9925</v>
       </c>
       <c r="E2649" t="s">
-        <v>9892</v>
+        <v>9890</v>
       </c>
       <c r="F2649" t="s">
         <v>5788</v>
@@ -96897,16 +96861,16 @@
     </row>
     <row r="2650" spans="1:6">
       <c r="A2650" t="s">
-        <v>9893</v>
+        <v>9891</v>
       </c>
       <c r="B2650" t="s">
-        <v>9887</v>
+        <v>9885</v>
       </c>
       <c r="D2650" t="s">
-        <v>9927</v>
+        <v>9925</v>
       </c>
       <c r="E2650" t="s">
-        <v>9892</v>
+        <v>9890</v>
       </c>
       <c r="F2650" t="s">
         <v>5788</v>
@@ -96914,36 +96878,36 @@
     </row>
     <row r="2651" spans="1:6">
       <c r="A2651" t="s">
+        <v>9898</v>
+      </c>
+      <c r="B2651" t="s">
+        <v>9885</v>
+      </c>
+      <c r="D2651" t="s">
+        <v>9926</v>
+      </c>
+      <c r="E2651" t="s">
+        <v>9899</v>
+      </c>
+      <c r="F2651" t="s">
         <v>9900</v>
-      </c>
-      <c r="B2651" t="s">
-        <v>9887</v>
-      </c>
-      <c r="D2651" t="s">
-        <v>9928</v>
-      </c>
-      <c r="E2651" t="s">
-        <v>9901</v>
-      </c>
-      <c r="F2651" t="s">
-        <v>9902</v>
       </c>
     </row>
     <row r="2652" spans="1:6">
       <c r="A2652" t="s">
+        <v>9895</v>
+      </c>
+      <c r="B2652" t="s">
+        <v>9885</v>
+      </c>
+      <c r="D2652" t="s">
+        <v>9927</v>
+      </c>
+      <c r="E2652" t="s">
+        <v>9896</v>
+      </c>
+      <c r="F2652" t="s">
         <v>9897</v>
-      </c>
-      <c r="B2652" t="s">
-        <v>9887</v>
-      </c>
-      <c r="D2652" t="s">
-        <v>9929</v>
-      </c>
-      <c r="E2652" t="s">
-        <v>9898</v>
-      </c>
-      <c r="F2652" t="s">
-        <v>9899</v>
       </c>
     </row>
     <row r="2653" spans="1:6">
@@ -96961,7 +96925,7 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
